--- a/biology/Botanique/Maurice_Fontaine_(homme_politique)/Maurice_Fontaine_(homme_politique).xlsx
+++ b/biology/Botanique/Maurice_Fontaine_(homme_politique)/Maurice_Fontaine_(homme_politique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Maurice Fontaine, né le 20 septembre 1919 à Aigues-Mortes et mort le 2 janvier 2015 dans la même ville[1], est un homme politique français[2].
+Maurice Fontaine, né le 20 septembre 1919 à Aigues-Mortes et mort le 2 janvier 2015 dans la même ville, est un homme politique français.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Famille</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d'un viticulteur, il est le frère de l'avocat et auteur régionaliste Marcel Fontaine. Époux d'Augusta Inginoux, il a deux enfants : Noëlle et Jean.
 </t>
@@ -543,7 +557,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Viticulteur de profession, il est d'abord élu maire d'Aigues-Mortes (1965); il est battu par Sodol Colombini aux municipales de 1977. Suppléant de Suzanne Crémieux aux sénatoriales de 1971, il lui succède à son décès en 1976. Il siège au groupe de la Gauche démocratique et à la commission des affaires culturelles. Il ne se représente pas au renouvellement de 1980.
 </t>
